--- a/data/analog/analog_unsh.xlsx
+++ b/data/analog/analog_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_13.04.2022\analog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\analog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3474AAA6-4432-403A-B2C9-96FAA4D9C862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A61FC89-BFCB-47C6-8BD9-19535D21972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Отбор:</t>
   </si>
@@ -62,162 +62,183 @@
     <t>32311С Аналог LM (собств. разр.) Implantium, Impro D=3.8/4.5 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
+    <t>32308 Аналог LM (собств. разр.) Ankylos C / X D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32347С Аналог LM (собств. разр.) Anthogyr Axiom D=3.45 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
     <t>32336С Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
     <t>32323С Аналог LM (собств. разр.) Mis SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
+    <t>32314С Аналог LM (собств. разр.) Nobel Active NP (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32327С Аналог LM (собств. разр.) Nobel Replace Select 4.3 D=4.3 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32435Суп Аналог LM (собств. разр.) Nobel Replace Select 3.5 D=3.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32313С Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32316С Аналог LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32321С Аналог LM (собств. разр.) Alpha Bio Internal D=4.2 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32321Суп Аналог LM (собств. разр.) Alpha Bio Internal D=4.2 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32345С Аналог LM (собств. разр.) Straumann SynOcta RN (4.8) D=4.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32336Суп Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32342Суп Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32312С Аналог LM (собств. разр.) Implantium, Impro D=3.4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32319С Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32348Суп Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32009Т Аналог LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12 (арт. CS-RSM10), ti, V.1</t>
+  </si>
+  <si>
+    <t>32029Суп Аналог LM (копия оригинала) MegaGen AnyRidge D=4.4 L=12 (арт. AANLAF4055), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32334С Аналог LM (собств. разр.) Niko 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32333С Аналог LM (собств. разр.) Niko 3.5 D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32019С Аналог LM (копия оригинала) Xive 3.4 D=3.5 L=13 (арт. 45-2631), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32328С Аналог LM (собств. разр.) Nobel Replace Select 5.0 D=5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32315С Аналог LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32307уп Аналог LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32420С Аналог LM (собств. разр.) Nobel Multi-Unit, LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32136уп Аналог LM (собств. разр.) Implantium Multi-Unit 4.5 D=4.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32322С Аналог LM (собств. разр.) Mis NP (3.3) D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32011Суп Аналог LM (копия оригинала) Alpha Bio Internal D=4.2 L=12.5 (арт. 5080), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32080Суп Аналог LM (копия оригинала) Straumann SynOcta RN (4.8) D=4.8 L=12 (арт. 048.124), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32004Суп Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), ti, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32035С Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32313СV2уп Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2 / УПАК</t>
+  </si>
+  <si>
+    <t>32318Суп Аналог LM (собств. разр.) Mis C1 (Conical) NP (3.3) D=3.35 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
     <t>32311Суп Аналог LM (собств. разр.) Implantium, Impro D=3.8/4.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
   </si>
   <si>
-    <t>32347С Аналог LM (собств. разр.) Anthogyr Axiom D=3.45 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32312С Аналог LM (собств. разр.) Implantium, Impro D=3.4 L=12.5, нерж. сталь, V.1</t>
+    <t>32032Суп Аналог LM (копия оригинала) ICX Medentis  D=4 L=15 (арт. С-006-010001), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>32317С Аналог LM (собств. разр.) Astra Tech 4.5/5.0 D=4.5 L=14, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32336Суп Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32342Суп Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32339С Аналог LM (собств. разр.) ICX Medentis  D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32345С Аналог LM (собств. разр.) Straumann SynOcta RN (4.8) D=4.8 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32313С Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32009Т Аналог LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12 (арт. CS-RSM10), ti, V.1</t>
-  </si>
-  <si>
-    <t>32029Суп Аналог LM (копия оригинала) MegaGen AnyRidge D=4.4 L=12 (арт. AANLAF4055), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32389С Аналог LM (собств. разр.) Sky Bredent D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32348Суп Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32019С Аналог LM (копия оригинала) Xive 3.4 D=3.5 L=13 (арт. 45-2631), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32315С Аналог LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32011Суп Аналог LM (копия оригинала) Alpha Bio Internal D=4.2 L=12.5 (арт. 5080), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32420С Аналог LM (собств. разр.) Nobel Multi-Unit, LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32319С Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32004Суп Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), ti, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32316С Аналог LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32032Суп Аналог LM (копия оригинала) ICX Medentis  D=4 L=15 (арт. С-006-010001), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32035С Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32080Суп Аналог LM (копия оригинала) Straumann SynOcta RN (4.8) D=4.8 L=12 (арт. 048.124), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32321С Аналог LM (собств. разр.) Alpha Bio Internal D=4.2 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
     <t>32323Суп Аналог LM (собств. разр.) Mis SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>32136 Аналог LM (собств. разр.) Implantium Multi-Unit 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32314С Аналог LM (собств. разр.) Nobel Active NP (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32307уп Аналог LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
     <t>32001С Аналог LM (копия оригинала) Implantium 3.4, Impro D=4 L=12 (арт. DAN34), нерж. сталь, V.1</t>
   </si>
   <si>
+    <t>32004С Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), нерж. сталь, V.1</t>
+  </si>
+  <si>
     <t>32065Суп Аналог LM (копия оригинала) MegaGen AnyOne D=4.3 L=12 (арт. LA400H), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>32004С Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), нерж. сталь, V.1</t>
+    <t>32432С Аналог LM (собств. разр.) Osstem Implant Multi-Unit D=4.8 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
     <t>32319Суп Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1 / УПАК</t>
   </si>
   <si>
+    <t>32329С Аналог LM (собств. разр.) Xive 3.4 D=3.4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32330С Аналог LM (собств. разр.) Xive 3.8 D=3.9 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32125Суп Аналог LM (копия оригинала) Alpha Bio Conical Narrow D=3.2 L=12 (арт. IA-CHC_7338), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32035Суп Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), латунь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32435С Аналог LM (собств. разр.) Nobel Replace Select 3.5 D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
     <t>32313Суп Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
   </si>
   <si>
-    <t>32322С Аналог LM (собств. разр.) Mis NP (3.3) D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32318С Аналог LM (собств. разр.) Mis C1 (Conical) NP (3.3) D=3.35 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32330С Аналог LM (собств. разр.) Xive 3.8 D=3.9 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32125Суп Аналог LM (копия оригинала) Alpha Bio Conical Narrow D=3.2 L=12 (арт. IA-CHC_7338), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32491C Аналог LM (собств. разр.) Bego Semados 3.25/3.75 D=3.8 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32329С Аналог LM (собств. разр.) Xive 3.4 D=3.4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32035Суп Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), латунь, V.1 / УПАК</t>
+    <t>32395С Аналог LM (собств. разр.) Zimmer 3.5, нерж. сталь V.1</t>
+  </si>
+  <si>
+    <t>32008Суп Аналог LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=3.35 L=12.75 (арт. CN-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32010Суп Аналог LM (копия оригинала) Mis C1 (Conical) WP (5.0) D=5 L=12 (арт. CW-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32021Суп Аналог LM (копия оригинала) Xive 4.5 D=4.6 L=12.8 (арт. 45-2651), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32313СV2 Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2</t>
+  </si>
+  <si>
+    <t>32013Туп Аналог LM (копия оригинала) Mis SP (3.75/4.2) D=3.8 L=12 (арт. MD-RSM10), ti, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32012Суп Аналог LM (копия оригинала) Mis NP (3.3) D=3.3 L=12 (арт. MN-RSM10), нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32014Суп Аналог LM (копия оригинала) Mis WP (5.0/6.0) D=4.65 L=12 (арт. MW-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>32002С Аналог LM (копия оригинала) Osstem Implant Mini (3.5) D=3.5 L=15 (арт. GSTLA350), нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32008Суп Аналог LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=3.35 L=12.75 (арт. CN-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32395С Аналог LM (собств. разр.) Zimmer 3.5, нерж. сталь V.1</t>
-  </si>
-  <si>
-    <t>32010Суп Аналог LM (копия оригинала) Mis C1 (Conical) WP (5.0) D=5 L=12 (арт. CW-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32021Суп Аналог LM (копия оригинала) Xive 4.5 D=4.6 L=12.8 (арт. 45-2651), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32313СV2 Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2</t>
-  </si>
-  <si>
-    <t>32013Туп Аналог LM (копия оригинала) Mis SP (3.75/4.2) D=3.8 L=12 (арт. MD-RSM10), ti, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32012Суп Аналог LM (копия оригинала) Mis NP (3.3) D=3.3 L=12 (арт. MN-RSM10), нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32014Суп Аналог LM (копия оригинала) Mis WP (5.0/6.0) D=4.65 L=12 (арт. MW-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32313СV2уп Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2 / УПАК</t>
-  </si>
-  <si>
     <t>Аналог 3D</t>
   </si>
   <si>
@@ -239,10 +260,10 @@
     <t>32005С_3D1уп Аналог 3D LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12, нерж. сталь, V.2 / 1 ВИНТ, УПАК</t>
   </si>
   <si>
-    <t>32011С_3D1опт Аналог 3D LM (собств. разр.) Alpha Bio Internal D=4.2 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>32013С_3Dопт Аналог 3D LM (собств. разр.) Mis SP (3.75/4.2) D=5 L=13.5, нерж. сталь, V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>32006С_3D1опт Аналог 3D LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>32007С_3D1опт Аналог 3D LM (собств. разр.) Astra Tech 4.5/5.0 D=5 L=13, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
 </sst>
 </file>
@@ -321,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -365,13 +386,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -719,10 +743,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -734,8 +758,7 @@
     <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -795,15 +818,15 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>878</v>
+        <v>1208</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>498</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -813,7 +836,7 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="6">
@@ -821,7 +844,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>56</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -831,13 +854,13 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -863,31 +886,29 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="6">
-        <v>30</v>
-      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -897,13 +918,15 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6">
+        <v>30</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -913,29 +936,29 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -945,15 +968,13 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="6">
-        <v>40</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -963,15 +984,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -981,29 +1002,29 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1013,15 +1034,15 @@
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="6">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1031,13 +1052,13 @@
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1047,49 +1068,49 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17">
+        <v>25</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="6">
         <v>10</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="6">
-        <v>4</v>
-      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1099,31 +1120,31 @@
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="6">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1133,13 +1154,13 @@
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1149,61 +1170,63 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="6">
+        <v>10</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1213,33 +1236,31 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="6">
-        <v>31</v>
-      </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17">
-        <v>205</v>
+        <v>30</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="6">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1249,29 +1270,31 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="6">
+        <v>3</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1281,13 +1304,13 @@
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1297,29 +1320,29 @@
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1329,15 +1352,13 @@
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E38" s="17"/>
-      <c r="F38" s="6">
-        <v>3</v>
-      </c>
+      <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1347,13 +1368,13 @@
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1363,13 +1384,15 @@
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="E40" s="17"/>
-      <c r="F40" s="7"/>
+      <c r="F40" s="6">
+        <v>200</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1379,15 +1402,13 @@
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E41" s="17"/>
-      <c r="F41" s="6">
-        <v>1</v>
-      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1397,13 +1418,13 @@
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1413,79 +1434,79 @@
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E43" s="17"/>
-      <c r="F43" s="6">
-        <v>6</v>
-      </c>
+      <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E44" s="17"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="6">
+        <v>31</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1495,29 +1516,31 @@
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49" s="17"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1527,13 +1550,13 @@
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
       <c r="D50" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1543,15 +1566,13 @@
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E51" s="17"/>
-      <c r="F51" s="6">
-        <v>10</v>
-      </c>
+      <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1561,13 +1582,13 @@
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1577,29 +1598,29 @@
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
       <c r="D54" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1609,13 +1630,13 @@
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1625,13 +1646,13 @@
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1641,13 +1662,13 @@
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1657,16 +1678,18 @@
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E58" s="17"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="6">
+        <v>6</v>
+      </c>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
         <v>62</v>
       </c>
@@ -1698,22 +1721,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
+    <row r="61" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="15">
-        <v>145</v>
-      </c>
-      <c r="E61" s="15"/>
-      <c r="F61" s="4">
-        <v>109</v>
-      </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="4">
-        <v>36</v>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="17">
+        <v>1</v>
+      </c>
+      <c r="E61" s="17"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1723,33 +1744,29 @@
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E62" s="17"/>
-      <c r="F62" s="6">
-        <v>9</v>
-      </c>
+      <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="E63" s="17"/>
-      <c r="F63" s="6">
-        <v>100</v>
-      </c>
+      <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1759,13 +1776,13 @@
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1775,13 +1792,13 @@
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E65" s="17"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1791,13 +1808,13 @@
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1807,29 +1824,33 @@
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E67" s="17"/>
-      <c r="F67" s="7"/>
+      <c r="F67" s="6">
+        <v>10</v>
+      </c>
       <c r="G67" s="7"/>
       <c r="H67" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17">
-        <v>3</v>
-      </c>
-      <c r="E68" s="17"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="6">
-        <v>3</v>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="18">
+        <v>142</v>
+      </c>
+      <c r="E68" s="18"/>
+      <c r="F68" s="4">
+        <v>109</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1839,41 +1860,171 @@
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
       <c r="D69" s="17">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E69" s="17"/>
-      <c r="F69" s="7"/>
+      <c r="F69" s="6">
+        <v>9</v>
+      </c>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="17">
+        <v>105</v>
+      </c>
+      <c r="E70" s="17"/>
+      <c r="F70" s="6">
+        <v>100</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="17">
+        <v>4</v>
+      </c>
+      <c r="E71" s="17"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17">
+        <v>4</v>
+      </c>
+      <c r="E72" s="17"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="17">
+        <v>4</v>
+      </c>
+      <c r="E73" s="17"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17">
+        <v>4</v>
+      </c>
+      <c r="E74" s="17"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="17">
+        <v>2</v>
+      </c>
+      <c r="E75" s="17"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="17">
+        <v>1</v>
+      </c>
+      <c r="E76" s="17"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="18">
-        <v>1023</v>
-      </c>
-      <c r="E70" s="18"/>
-      <c r="F70" s="8">
-        <v>489</v>
-      </c>
-      <c r="G70" s="9"/>
-      <c r="H70" s="8">
-        <v>534</v>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="19">
+        <v>1350</v>
+      </c>
+      <c r="E77" s="19"/>
+      <c r="F77" s="8">
+        <v>529</v>
+      </c>
+      <c r="G77" s="9"/>
+      <c r="H77" s="8">
+        <v>821</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="135">
+  <mergeCells count="149">
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="D77:E77"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="A69:C69"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="D70:E70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:E72"/>
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="A64:C64"/>

--- a/data/analog/analog_unsh.xlsx
+++ b/data/analog/analog_unsh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\analog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\analog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A61FC89-BFCB-47C6-8BD9-19535D21972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE40631-59B2-4132-BA82-FB28A2A1F58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>Отбор:</t>
   </si>
@@ -59,186 +59,171 @@
     <t>32307 Аналог LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
+    <t>32323С Аналог LM (собств. разр.) Mis SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32312С Аналог LM (собств. разр.) Implantium, Impro D=3.4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32336С Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
     <t>32311С Аналог LM (собств. разр.) Implantium, Impro D=3.8/4.5 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32308 Аналог LM (собств. разр.) Ankylos C / X D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
     <t>32347С Аналог LM (собств. разр.) Anthogyr Axiom D=3.45 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32336С Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32323С Аналог LM (собств. разр.) Mis SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
+    <t>32333С Аналог LM (собств. разр.) Niko 3.5 D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32334С Аналог LM (собств. разр.) Niko 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32345С Аналог LM (собств. разр.) Straumann SynOcta RN (4.8) D=4.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32432С Аналог LM (собств. разр.) Osstem Implant Multi-Unit D=4.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32342Суп Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32336Суп Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32389С Аналог LM (собств. разр.) Sky Bredent D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32313С Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32491C Аналог LM (собств. разр.) Bego Semados 3.25/3.75 D=3.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32009Т Аналог LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12 (арт. CS-RSM10), ti, V.1</t>
+  </si>
+  <si>
+    <t>32029Суп Аналог LM (копия оригинала) MegaGen AnyRidge D=4.4 L=12 (арт. AANLAF4055), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32342С Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32420СLопт Аналог LM (собств. разр.) LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32348Суп Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32019С Аналог LM (копия оригинала) Xive 3.4 D=3.5 L=13 (арт. 45-2631), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32346С Аналог LM (собств. разр.) Straumann SynOcta WN (6.5) D=6.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32321С Аналог LM (собств. разр.) Alpha Bio Internal D=4.2 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32316С Аналог LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32315С Аналог LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32011Суп Аналог LM (копия оригинала) Alpha Bio Internal D=4.2 L=12.5 (арт. 5080), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32032Суп Аналог LM (копия оригинала) ICX Medentis  D=4 L=15 (арт. С-006-010001), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32035С Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32004Суп Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), ti, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32080Суп Аналог LM (копия оригинала) Straumann SynOcta RN (4.8) D=4.8 L=12 (арт. 048.124), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>32314С Аналог LM (собств. разр.) Nobel Active NP (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32327С Аналог LM (собств. разр.) Nobel Replace Select 4.3 D=4.3 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32435Суп Аналог LM (собств. разр.) Nobel Replace Select 3.5 D=3.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32313С Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32316С Аналог LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32321С Аналог LM (собств. разр.) Alpha Bio Internal D=4.2 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32321Суп Аналог LM (собств. разр.) Alpha Bio Internal D=4.2 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32345С Аналог LM (собств. разр.) Straumann SynOcta RN (4.8) D=4.8 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32336Суп Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32342Суп Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32312С Аналог LM (собств. разр.) Implantium, Impro D=3.4 L=12.5, нерж. сталь, V.1</t>
+    <t>32001С Аналог LM (копия оригинала) Implantium 3.4, Impro D=4 L=12 (арт. DAN34), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32136 Аналог LM (собств. разр.) Implantium Multi-Unit 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32330С Аналог LM (собств. разр.) Xive 3.8 D=3.9 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32319Суп Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32065Суп Аналог LM (копия оригинала) MegaGen AnyOne D=4.3 L=12 (арт. LA400H), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32004С Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32499С Аналог LM (собств. разр.) Neodent Grand Morse D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32035Суп Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), латунь, V.1 / УПАК</t>
   </si>
   <si>
     <t>32319С Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32348Суп Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32009Т Аналог LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12 (арт. CS-RSM10), ti, V.1</t>
-  </si>
-  <si>
-    <t>32029Суп Аналог LM (копия оригинала) MegaGen AnyRidge D=4.4 L=12 (арт. AANLAF4055), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32334С Аналог LM (собств. разр.) Niko 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32333С Аналог LM (собств. разр.) Niko 3.5 D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32019С Аналог LM (копия оригинала) Xive 3.4 D=3.5 L=13 (арт. 45-2631), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32328С Аналог LM (собств. разр.) Nobel Replace Select 5.0 D=5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32315С Аналог LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32307уп Аналог LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32420С Аналог LM (собств. разр.) Nobel Multi-Unit, LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32136уп Аналог LM (собств. разр.) Implantium Multi-Unit 4.5 D=4.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
+    <t>32329С Аналог LM (собств. разр.) Xive 3.4 D=3.4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32313Суп Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
   </si>
   <si>
     <t>32322С Аналог LM (собств. разр.) Mis NP (3.3) D=4 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32011Суп Аналог LM (копия оригинала) Alpha Bio Internal D=4.2 L=12.5 (арт. 5080), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32080Суп Аналог LM (копия оригинала) Straumann SynOcta RN (4.8) D=4.8 L=12 (арт. 048.124), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32004Суп Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), ti, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32035С Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32313СV2уп Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2 / УПАК</t>
-  </si>
-  <si>
-    <t>32318Суп Аналог LM (собств. разр.) Mis C1 (Conical) NP (3.3) D=3.35 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32311Суп Аналог LM (собств. разр.) Implantium, Impro D=3.8/4.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32032Суп Аналог LM (копия оригинала) ICX Medentis  D=4 L=15 (арт. С-006-010001), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32317С Аналог LM (собств. разр.) Astra Tech 4.5/5.0 D=4.5 L=14, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32323Суп Аналог LM (собств. разр.) Mis SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32136 Аналог LM (собств. разр.) Implantium Multi-Unit 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32001С Аналог LM (копия оригинала) Implantium 3.4, Impro D=4 L=12 (арт. DAN34), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32004С Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32065Суп Аналог LM (копия оригинала) MegaGen AnyOne D=4.3 L=12 (арт. LA400H), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32432С Аналог LM (собств. разр.) Osstem Implant Multi-Unit D=4.8 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32319Суп Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32329С Аналог LM (собств. разр.) Xive 3.4 D=3.4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32330С Аналог LM (собств. разр.) Xive 3.8 D=3.9 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
     <t>32125Суп Аналог LM (копия оригинала) Alpha Bio Conical Narrow D=3.2 L=12 (арт. IA-CHC_7338), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>32035Суп Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), латунь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32435С Аналог LM (собств. разр.) Nobel Replace Select 3.5 D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32313Суп Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
+    <t>32013Туп Аналог LM (копия оригинала) Mis SP (3.75/4.2) D=3.8 L=12 (арт. MD-RSM10), ti, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32313СV2 Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2</t>
+  </si>
+  <si>
+    <t>32348С Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32012Суп Аналог LM (копия оригинала) Mis NP (3.3) D=3.3 L=12 (арт. MN-RSM10), нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32021Суп Аналог LM (копия оригинала) Xive 4.5 D=4.6 L=12.8 (арт. 45-2651), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32010Суп Аналог LM (копия оригинала) Mis C1 (Conical) WP (5.0) D=5 L=12 (арт. CW-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32493C Аналог LM (собств. разр.) Bego Semados 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32008Суп Аналог LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=3.35 L=12.75 (арт. CN-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32492C Аналог LM (собств. разр.) Bego Semados 4.1 D=4.1 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32002С Аналог LM (копия оригинала) Osstem Implant Mini (3.5) D=3.5 L=15 (арт. GSTLA350), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32014Суп Аналог LM (копия оригинала) Mis WP (5.0/6.0) D=4.65 L=12 (арт. MW-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>32395С Аналог LM (собств. разр.) Zimmer 3.5, нерж. сталь V.1</t>
   </si>
   <si>
-    <t>32008Суп Аналог LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=3.35 L=12.75 (арт. CN-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32010Суп Аналог LM (копия оригинала) Mis C1 (Conical) WP (5.0) D=5 L=12 (арт. CW-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32021Суп Аналог LM (копия оригинала) Xive 4.5 D=4.6 L=12.8 (арт. 45-2651), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32313СV2 Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2</t>
-  </si>
-  <si>
-    <t>32013Туп Аналог LM (копия оригинала) Mis SP (3.75/4.2) D=3.8 L=12 (арт. MD-RSM10), ti, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32012Суп Аналог LM (копия оригинала) Mis NP (3.3) D=3.3 L=12 (арт. MN-RSM10), нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32014Суп Аналог LM (копия оригинала) Mis WP (5.0/6.0) D=4.65 L=12 (арт. MW-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32002С Аналог LM (копия оригинала) Osstem Implant Mini (3.5) D=3.5 L=15 (арт. GSTLA350), нерж. сталь, V.1</t>
-  </si>
-  <si>
     <t>Аналог 3D</t>
   </si>
   <si>
@@ -248,6 +233,12 @@
     <t>32000С_3D Аналог 3D LM (собств. разр.) Implantium D=3.8/4.5 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
+    <t>32002С_3D1опт Аналог 3D LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>32003С_3D1опт Аналог 3D LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
     <t>32006С_3D1уп Аналог 3D LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12, нерж. сталь, V.2 / 1 ВИНТ, УПАК</t>
   </si>
   <si>
@@ -260,10 +251,16 @@
     <t>32005С_3D1уп Аналог 3D LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12, нерж. сталь, V.2 / 1 ВИНТ, УПАК</t>
   </si>
   <si>
-    <t>32006С_3D1опт Аналог 3D LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>32007С_3D1опт Аналог 3D LM (собств. разр.) Astra Tech 4.5/5.0 D=5 L=13, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>32000С_3D1уп Аналог 3D LM (собств. разр.) Implantium D=3.8/4.5 L=12, нерж. сталь, V.2 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>32006С_3D Аналог 3D LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12, нерж. сталь, V.2</t>
+  </si>
+  <si>
+    <t>32007С_3D Аналог 3D LM (собств. разр.) Astra Tech 4.5/5.0 D=5 L=13, нерж. сталь, V.2</t>
+  </si>
+  <si>
+    <t>32013С_3D1опт Аналог 3D LM (собств. разр.) Mis SP (3.75/4.2) D=4 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
 </sst>
 </file>
@@ -342,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -386,16 +383,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -743,11 +737,9 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -755,10 +747,10 @@
     <col min="2" max="2" width="1.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="1.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -818,15 +810,15 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>1208</v>
+        <v>992</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>788</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -836,7 +828,7 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="6">
@@ -844,7 +836,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -854,13 +846,15 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="6">
+        <v>30</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -902,13 +896,13 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -918,15 +912,13 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="6">
-        <v>30</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -936,29 +928,29 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -968,13 +960,13 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -984,65 +976,65 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="6">
-        <v>13</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="6">
+        <v>40</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="6">
-        <v>40</v>
-      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1052,13 +1044,15 @@
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="6">
+        <v>13</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1068,15 +1062,13 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="6">
-        <v>40</v>
-      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1086,47 +1078,49 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E22" s="17"/>
-      <c r="F22" s="6">
-        <v>10</v>
-      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="6">
+        <v>10</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E24" s="17"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="6">
+        <v>10</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1136,12 +1130,10 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="6">
-        <v>4</v>
-      </c>
+      <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
         <v>10</v>
@@ -1154,10 +1146,12 @@
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="6">
+        <v>4</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
         <v>10</v>
@@ -1170,31 +1164,29 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="6">
-        <v>10</v>
-      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1204,63 +1196,63 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="6">
+        <v>20</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="6">
-        <v>20</v>
-      </c>
+      <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1270,15 +1262,15 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="6">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1288,13 +1280,15 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="E34" s="17"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="6">
+        <v>200</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1304,45 +1298,45 @@
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1352,47 +1346,45 @@
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17">
-        <v>205</v>
+        <v>3</v>
       </c>
       <c r="E40" s="17"/>
-      <c r="F40" s="6">
-        <v>200</v>
-      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1402,13 +1394,13 @@
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1418,13 +1410,13 @@
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1434,47 +1426,47 @@
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43" s="17"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E44" s="17"/>
-      <c r="F44" s="6">
-        <v>31</v>
-      </c>
+      <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1484,13 +1476,13 @@
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1500,13 +1492,13 @@
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1516,31 +1508,31 @@
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E48" s="17"/>
-      <c r="F48" s="7"/>
+      <c r="F48" s="6">
+        <v>6</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49" s="17"/>
-      <c r="F49" s="6">
-        <v>1</v>
-      </c>
+      <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1550,13 +1542,13 @@
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
       <c r="D50" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1566,13 +1558,13 @@
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1582,45 +1574,45 @@
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
       <c r="D54" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1630,13 +1622,13 @@
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1646,29 +1638,29 @@
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1678,15 +1670,13 @@
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E58" s="17"/>
-      <c r="F58" s="6">
-        <v>6</v>
-      </c>
+      <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1712,10 +1702,12 @@
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E60" s="17"/>
-      <c r="F60" s="7"/>
+      <c r="F60" s="6">
+        <v>10</v>
+      </c>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
         <v>1</v>
@@ -1737,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
         <v>65</v>
       </c>
@@ -1753,20 +1745,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="s">
+    <row r="63" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="17">
-        <v>1</v>
-      </c>
-      <c r="E63" s="17"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="6">
-        <v>1</v>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15">
+        <v>157</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="4">
+        <v>109</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="4">
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1776,29 +1770,33 @@
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E64" s="17"/>
-      <c r="F64" s="7"/>
+      <c r="F64" s="6">
+        <v>9</v>
+      </c>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="17">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="E65" s="17"/>
-      <c r="F65" s="7"/>
+      <c r="F65" s="6">
+        <v>100</v>
+      </c>
       <c r="G65" s="7"/>
       <c r="H65" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1808,13 +1806,13 @@
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1824,33 +1822,29 @@
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E67" s="17"/>
-      <c r="F67" s="6">
-        <v>10</v>
-      </c>
+      <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="18">
-        <v>142</v>
-      </c>
-      <c r="E68" s="18"/>
-      <c r="F68" s="4">
-        <v>109</v>
-      </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="4">
-        <v>33</v>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17">
+        <v>4</v>
+      </c>
+      <c r="E68" s="17"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1860,33 +1854,29 @@
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
       <c r="D69" s="17">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E69" s="17"/>
-      <c r="F69" s="6">
-        <v>9</v>
-      </c>
+      <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="17">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E70" s="17"/>
-      <c r="F70" s="6">
-        <v>100</v>
-      </c>
+      <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1912,13 +1902,13 @@
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E72" s="17"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1928,29 +1918,29 @@
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1960,51 +1950,35 @@
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
       <c r="D75" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" s="17"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="17">
-        <v>1</v>
-      </c>
-      <c r="E76" s="17"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="19">
-        <v>1350</v>
-      </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="8">
-        <v>529</v>
-      </c>
-      <c r="G77" s="9"/>
-      <c r="H77" s="8">
-        <v>821</v>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="18">
+        <v>1149</v>
+      </c>
+      <c r="E76" s="18"/>
+      <c r="F76" s="8">
+        <v>496</v>
+      </c>
+      <c r="G76" s="9"/>
+      <c r="H76" s="8">
+        <v>653</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="149">
+  <mergeCells count="147">
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="A74:C74"/>
@@ -2013,8 +1987,6 @@
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="A76:C76"/>
     <mergeCell ref="D76:E76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="D77:E77"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="A69:C69"/>

--- a/data/analog/analog_unsh.xlsx
+++ b/data/analog/analog_unsh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\analog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Desktop\data_12.07.2022\analog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE40631-59B2-4132-BA82-FB28A2A1F58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94417455-8CFC-45C4-9B5E-CCEF3F3AC78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>Отбор:</t>
   </si>
@@ -59,208 +59,193 @@
     <t>32307 Аналог LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
+    <t>32311С Аналог LM (собств. разр.) Implantium, Impro D=3.8/4.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
     <t>32323С Аналог LM (собств. разр.) Mis SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32312С Аналог LM (собств. разр.) Implantium, Impro D=3.4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
     <t>32336С Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32311С Аналог LM (собств. разр.) Implantium, Impro D=3.8/4.5 L=12.5, нерж. сталь, V.1</t>
+    <t>32319С Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
     <t>32347С Аналог LM (собств. разр.) Anthogyr Axiom D=3.45 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32333С Аналог LM (собств. разр.) Niko 3.5 D=3.5 L=12.5, нерж. сталь, V.1</t>
+    <t>32345С Аналог LM (собств. разр.) Straumann SynOcta RN (4.8) D=4.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32342Суп Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32336Суп Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32136 Аналог LM (собств. разр.) Implantium Multi-Unit 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32315С Аналог LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32313С Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32342С Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32029Суп Аналог LM (копия оригинала) MegaGen AnyRidge D=4.4 L=12 (арт. AANLAF4055), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32009Т Аналог LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12 (арт. CS-RSM10), ti, V.1</t>
+  </si>
+  <si>
+    <t>32019С Аналог LM (копия оригинала) Xive 3.4 D=3.5 L=13 (арт. 45-2631), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32499С Аналог LM (собств. разр.) Neodent Grand Morse D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32347Суп Аналог LM (собств. разр.) Anthogyr Axiom D=3.45 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32420С Аналог LM (собств. разр.) Nobel Multi-Unit, LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32348Суп Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32314С Аналог LM (собств. разр.) Nobel Active NP (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32313СV2 Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2</t>
+  </si>
+  <si>
+    <t>32011Суп Аналог LM (копия оригинала) Alpha Bio Internal D=4.2 L=12.5 (арт. 5080), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32316С Аналог LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32321С Аналог LM (собств. разр.) Alpha Bio Internal D=4.2 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32035С Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32008 Аналог LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=3.35 L=12.75 (арт. CN-RSM10), латунь, V.1</t>
+  </si>
+  <si>
+    <t>32004Суп Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), ti, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32080Суп Аналог LM (копия оригинала) Straumann SynOcta RN (4.8) D=4.8 L=12 (арт. 048.124), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32032Суп Аналог LM (копия оригинала) ICX Medentis  D=4 L=15 (арт. С-006-010001), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32318С Аналог LM (собств. разр.) Mis C1 (Conical) NP (3.3) D=3.35 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32322С Аналог LM (собств. разр.) Mis NP (3.3) D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32329С Аналог LM (собств. разр.) Xive 3.4 D=3.4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32001С Аналог LM (копия оригинала) Implantium 3.4, Impro D=4 L=12 (арт. DAN34), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32065Суп Аналог LM (копия оригинала) MegaGen AnyOne D=4.3 L=12 (арт. LA400H), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32319Суп Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32004С Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32389С Аналог LM (собств. разр.) Sky Bredent D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32035Суп Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), латунь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32125Суп Аналог LM (копия оригинала) Alpha Bio Conical Narrow D=3.2 L=12 (арт. IA-CHC_7338), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32330С Аналог LM (собств. разр.) Xive 3.8 D=3.9 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
     <t>32334С Аналог LM (собств. разр.) Niko 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32345С Аналог LM (собств. разр.) Straumann SynOcta RN (4.8) D=4.8 L=12.5, нерж. сталь, V.1</t>
+    <t>32313Суп Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32002С Аналог LM (копия оригинала) Osstem Implant Mini (3.5) D=3.5 L=15 (арт. GSTLA350), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32395С Аналог LM (собств. разр.) Zimmer 3.5, нерж. сталь V.1</t>
+  </si>
+  <si>
+    <t>32348С Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32341С Аналог LM (собств. разр.) CSM D=3.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32014Суп Аналог LM (копия оригинала) Mis WP (5.0/6.0) D=4.65 L=12 (арт. MW-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32008Суп Аналог LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=3.35 L=12.75 (арт. CN-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32010Суп Аналог LM (копия оригинала) Mis C1 (Conical) WP (5.0) D=5 L=12 (арт. CW-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32325С Аналог LM (собств. разр.) Adin RS (3.5/3.75/4.2/5.0/6.0) D=3.75 L=12, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32324С Аналог LM (собств. разр.) Mis WP (5.0/6.0) D=4.7 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32021Суп Аналог LM (копия оригинала) Xive 4.5 D=4.6 L=12.8 (арт. 45-2651), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32308 Аналог LM (собств. разр.) Ankylos C / X D=3.5 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
     <t>32432С Аналог LM (собств. разр.) Osstem Implant Multi-Unit D=4.8 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32342Суп Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32336Суп Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32389С Аналог LM (собств. разр.) Sky Bredent D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32313С Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32491C Аналог LM (собств. разр.) Bego Semados 3.25/3.75 D=3.8 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32009Т Аналог LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12 (арт. CS-RSM10), ti, V.1</t>
-  </si>
-  <si>
-    <t>32029Суп Аналог LM (копия оригинала) MegaGen AnyRidge D=4.4 L=12 (арт. AANLAF4055), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32342С Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32420СLопт Аналог LM (собств. разр.) LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32348Суп Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32019С Аналог LM (копия оригинала) Xive 3.4 D=3.5 L=13 (арт. 45-2631), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32346С Аналог LM (собств. разр.) Straumann SynOcta WN (6.5) D=6.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32321С Аналог LM (собств. разр.) Alpha Bio Internal D=4.2 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32316С Аналог LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32315С Аналог LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32011Суп Аналог LM (копия оригинала) Alpha Bio Internal D=4.2 L=12.5 (арт. 5080), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32032Суп Аналог LM (копия оригинала) ICX Medentis  D=4 L=15 (арт. С-006-010001), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32035С Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32004Суп Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), ti, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32080Суп Аналог LM (копия оригинала) Straumann SynOcta RN (4.8) D=4.8 L=12 (арт. 048.124), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32314С Аналог LM (собств. разр.) Nobel Active NP (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32001С Аналог LM (копия оригинала) Implantium 3.4, Impro D=4 L=12 (арт. DAN34), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32136 Аналог LM (собств. разр.) Implantium Multi-Unit 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32330С Аналог LM (собств. разр.) Xive 3.8 D=3.9 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32319Суп Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32065Суп Аналог LM (копия оригинала) MegaGen AnyOne D=4.3 L=12 (арт. LA400H), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32004С Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32499С Аналог LM (собств. разр.) Neodent Grand Morse D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32035Суп Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), латунь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32319С Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32329С Аналог LM (собств. разр.) Xive 3.4 D=3.4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32313Суп Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32322С Аналог LM (собств. разр.) Mis NP (3.3) D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32125Суп Аналог LM (копия оригинала) Alpha Bio Conical Narrow D=3.2 L=12 (арт. IA-CHC_7338), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
     <t>32013Туп Аналог LM (копия оригинала) Mis SP (3.75/4.2) D=3.8 L=12 (арт. MD-RSM10), ti, V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>32313СV2 Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2</t>
-  </si>
-  <si>
-    <t>32348С Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1</t>
+    <t>32398С Аналог LM (собств. разр.) AB Dental D=4 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
     <t>32012Суп Аналог LM (копия оригинала) Mis NP (3.3) D=3.3 L=12 (арт. MN-RSM10), нерж. сталь, V.1 / УПАК</t>
   </si>
   <si>
-    <t>32021Суп Аналог LM (копия оригинала) Xive 4.5 D=4.6 L=12.8 (арт. 45-2651), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32010Суп Аналог LM (копия оригинала) Mis C1 (Conical) WP (5.0) D=5 L=12 (арт. CW-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32493C Аналог LM (собств. разр.) Bego Semados 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32008Суп Аналог LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=3.35 L=12.75 (арт. CN-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32492C Аналог LM (собств. разр.) Bego Semados 4.1 D=4.1 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32002С Аналог LM (копия оригинала) Osstem Implant Mini (3.5) D=3.5 L=15 (арт. GSTLA350), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32014Суп Аналог LM (копия оригинала) Mis WP (5.0/6.0) D=4.65 L=12 (арт. MW-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32395С Аналог LM (собств. разр.) Zimmer 3.5, нерж. сталь V.1</t>
-  </si>
-  <si>
     <t>Аналог 3D</t>
   </si>
   <si>
+    <t>32000С_3D Аналог 3D LM (собств. разр.) Implantium D=3.8/4.5 L=12, нерж. сталь, V.2</t>
+  </si>
+  <si>
     <t>32029С_3D Аналог 3D LM (собств. разр.) MegaGen AnyRidge D=4 L=11.5, нерж. сталь, V.1</t>
   </si>
   <si>
     <t>32000С_3D Аналог 3D LM (собств. разр.) Implantium D=3.8/4.5 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32002С_3D1опт Аналог 3D LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>32003С_3D1опт Аналог 3D LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>32006С_3D1уп Аналог 3D LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12, нерж. сталь, V.2 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>32007С_3D1уп Аналог 3D LM (собств. разр.) Astra Tech 4.5/5.0 D=5 L=13, нерж. сталь, V.2 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>32004С_3D1уп Аналог 3D LM (собств. разр.) Nobel Active NP (3.5) D=3.5 L=12, нерж. сталь, V.2 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>32005С_3D1уп Аналог 3D LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12, нерж. сталь, V.2 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>32000С_3D1уп Аналог 3D LM (собств. разр.) Implantium D=3.8/4.5 L=12, нерж. сталь, V.2 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>32006С_3D Аналог 3D LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12, нерж. сталь, V.2</t>
-  </si>
-  <si>
-    <t>32007С_3D Аналог 3D LM (собств. разр.) Astra Tech 4.5/5.0 D=5 L=13, нерж. сталь, V.2</t>
-  </si>
-  <si>
-    <t>32013С_3D1опт Аналог 3D LM (собств. разр.) Mis SP (3.75/4.2) D=4 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>32000С_3D1опт Аналог 3D LM (собств. разр.) Implantium D=3.8/4.5 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>32035С_3D Аналог 3D LM (собств. разр.) Ankylos C / X D=3.5 L=12, нерж. сталь, V.2</t>
   </si>
 </sst>
 </file>
@@ -737,7 +722,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,10 +732,11 @@
     <col min="2" max="2" width="1.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="1.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -810,15 +796,15 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -828,7 +814,7 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="6">
@@ -836,7 +822,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -846,15 +832,13 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="6">
-        <v>30</v>
-      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -864,13 +848,15 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6">
+        <v>30</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -880,29 +866,29 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -912,45 +898,47 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6">
+        <v>10</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -960,47 +948,49 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="6">
+        <v>40</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1010,15 +1000,15 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="6">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1028,13 +1018,15 @@
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="6">
+        <v>10</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1044,15 +1036,15 @@
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1087,37 +1079,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="6">
-        <v>10</v>
-      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E24" s="17"/>
-      <c r="F24" s="6">
-        <v>10</v>
-      </c>
+      <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
         <v>10</v>
@@ -1157,20 +1145,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1180,29 +1168,29 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1212,13 +1200,13 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1228,15 +1216,13 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="6">
-        <v>20</v>
-      </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1246,13 +1232,15 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="6">
+        <v>200</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1262,11 +1250,11 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="6">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
@@ -1280,12 +1268,10 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="E34" s="17"/>
-      <c r="F34" s="6">
-        <v>200</v>
-      </c>
+      <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
         <v>5</v>
@@ -1314,16 +1300,18 @@
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E36" s="17"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="6">
+        <v>31</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>40</v>
       </c>
@@ -1339,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>41</v>
       </c>
@@ -1371,20 +1359,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1444,13 +1432,13 @@
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1501,35 +1489,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E48" s="17"/>
-      <c r="F48" s="6">
-        <v>6</v>
-      </c>
+      <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E49" s="17"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="6">
+        <v>6</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
         <v>2</v>
@@ -1542,16 +1530,18 @@
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
       <c r="D50" s="17">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E50" s="17"/>
-      <c r="F50" s="7"/>
+      <c r="F50" s="6">
+        <v>10</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>54</v>
       </c>
@@ -1583,7 +1573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
         <v>56</v>
       </c>
@@ -1647,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
         <v>60</v>
       </c>
@@ -1663,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>61</v>
       </c>
@@ -1679,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
         <v>62</v>
       </c>
@@ -1695,19 +1685,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E60" s="17"/>
-      <c r="F60" s="6">
-        <v>10</v>
-      </c>
+      <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
         <v>1</v>
@@ -1729,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
         <v>65</v>
       </c>
@@ -1745,22 +1733,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
+    <row r="63" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15">
-        <v>157</v>
-      </c>
-      <c r="E63" s="15"/>
-      <c r="F63" s="4">
-        <v>109</v>
-      </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="4">
-        <v>48</v>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="17">
+        <v>1</v>
+      </c>
+      <c r="E63" s="17"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1770,49 +1756,47 @@
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E64" s="17"/>
-      <c r="F64" s="6">
-        <v>9</v>
-      </c>
+      <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="17">
-        <v>105</v>
-      </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="6">
-        <v>100</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="15">
+        <v>137</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="4">
+        <v>109</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1822,29 +1806,33 @@
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E67" s="17"/>
-      <c r="F67" s="7"/>
+      <c r="F67" s="6">
+        <v>9</v>
+      </c>
       <c r="G67" s="7"/>
       <c r="H67" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E68" s="17"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="6">
+        <v>100</v>
+      </c>
       <c r="G68" s="7"/>
       <c r="H68" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1854,139 +1842,51 @@
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
       <c r="D69" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="17">
-        <v>4</v>
-      </c>
-      <c r="E71" s="17"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="17">
-        <v>2</v>
-      </c>
-      <c r="E73" s="17"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="17">
-        <v>2</v>
-      </c>
-      <c r="E74" s="17"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="17">
-        <v>1</v>
-      </c>
-      <c r="E75" s="17"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="18">
-        <v>1149</v>
-      </c>
-      <c r="E76" s="18"/>
-      <c r="F76" s="8">
-        <v>496</v>
-      </c>
-      <c r="G76" s="9"/>
-      <c r="H76" s="8">
-        <v>653</v>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="18">
+        <v>1121</v>
+      </c>
+      <c r="E71" s="18"/>
+      <c r="F71" s="8">
+        <v>497</v>
+      </c>
+      <c r="G71" s="9"/>
+      <c r="H71" s="8">
+        <v>624</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="147">
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D76:E76"/>
+  <mergeCells count="137">
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="A69:C69"/>
@@ -1995,8 +1895,6 @@
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="D71:E71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:E72"/>
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="A64:C64"/>
